--- a/cricket/supporting_boards/1AAABED_C1/1AAABED_C1_BOM.xlsx
+++ b/cricket/supporting_boards/1AAABED_C1/1AAABED_C1_BOM.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piolew01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174CC5E-8F64-423B-9C00-4DBC186CF866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="36930" yWindow="4455" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,288 +34,292 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Bill of Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Data From:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1AAABED_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variant:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOE Cricket Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Things on Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-power 2-input XOR gate 0.8V-3.6V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexperia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74AUP1G86GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farnell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 270k 1% 1/16W SMD 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR01MZSF2703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL BLOCK, PCB, 2.54MM, 4WAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wuerth Elektronik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191-8717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery Clip AAA Surface Mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keystone Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 0R 5% 1/16W SMD 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR01MZSJ000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap - Tantalum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 680U 6V3 SMD TANT TAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJD687K006RNJV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1M 1% 1/16W SMD 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR01MZSF1004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap - Ceramic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 100NF 16V SMD CERAMIC X5R SMD 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM155R61H104KE19D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10k 1% 1/16W SMD 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCR01MZSF1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 10UF 10V SMD CERAMIC X5R SMD 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1608X5R1A106M</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+  <si>
+    <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>Source Data From:</t>
+  </si>
+  <si>
+    <t>1AAABED_C1</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Creation Date:</t>
+  </si>
+  <si>
+    <t>Print Date:</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>Part Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Order code</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>TOE Cricket Module</t>
+  </si>
+  <si>
+    <t>Things on Edge</t>
+  </si>
+  <si>
+    <t>IC - Logic</t>
+  </si>
+  <si>
+    <t>Low-power 2-input XOR gate 0.8V-3.6V</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>74AUP1G86GW</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>RES 270k 1% 1/16W SMD 0402</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>MCR01MZSF2703</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>TERMINAL BLOCK, PCB, 2.54MM, 4WAY</t>
+  </si>
+  <si>
+    <t>Wuerth Elektronik</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>191-8717</t>
+  </si>
+  <si>
+    <t>Battery Clip AAA Surface Mount</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>RES 0R 5% 1/16W SMD 0402</t>
+  </si>
+  <si>
+    <t>MCR01MZSJ000</t>
+  </si>
+  <si>
+    <t>Cap - Tantalum</t>
+  </si>
+  <si>
+    <t>CAP 680U 6V3 SMD TANT TAJ</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>TAJD687K006RNJV</t>
+  </si>
+  <si>
+    <t>RES 1M 1% 1/16W SMD 0402</t>
+  </si>
+  <si>
+    <t>MCR01MZSF1004</t>
+  </si>
+  <si>
+    <t>Cap - Ceramic</t>
+  </si>
+  <si>
+    <t>CAP 100NF 16V SMD CERAMIC X5R SMD 0402</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R61H104KE19D</t>
+  </si>
+  <si>
+    <t>RES 10k 1% 1/16W SMD 0402</t>
+  </si>
+  <si>
+    <t>MCR01MZSF1002</t>
+  </si>
+  <si>
+    <t>CAP 10UF 10V SMD CERAMIC X5R SMD 0603</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C1608X5R1A106M</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5,U6</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BAT1, BAT2</t>
+  </si>
+  <si>
+    <t>R4,R5,R6,R7,R8</t>
+  </si>
+  <si>
+    <t>C1,C5</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>C4, C3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="D\.M\.YYYY"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="169" formatCode="D/M/YYYY\ H:MM:SS"/>
-    <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="M\.D"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="m\.d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -332,7 +350,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -340,205 +358,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -597,66 +511,376 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF351C75"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AC1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="7"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="8"/>
+      <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30" ht="15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -664,7 +888,7 @@
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -672,12 +896,12 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -685,13 +909,14 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" ht="15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -699,7 +924,7 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -707,12 +932,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -720,13 +945,14 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="7"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="15">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -734,7 +960,7 @@
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -742,12 +968,12 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -755,13 +981,14 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="15">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
@@ -773,12 +1000,12 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -786,26 +1013,27 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="14">
         <v>43966</v>
       </c>
-      <c r="C6" s="15" t="n">
-        <v>0.420439814814815</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="15">
+        <v>0.42043981481481502</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -814,8 +1042,8 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -823,28 +1051,29 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="15">
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="n">
-        <f aca="true">TODAY()</f>
-        <v>44233</v>
-      </c>
-      <c r="C7" s="19" t="n">
-        <f aca="true">NOW()</f>
-        <v>44233.4773956792</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="B7" s="18">
+        <f ca="1">TODAY()</f>
+        <v>44238</v>
+      </c>
+      <c r="C7" s="19">
+        <f ca="1">NOW()</f>
+        <v>44238.341335879632</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -853,8 +1082,8 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -867,15 +1096,16 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -884,8 +1114,8 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -898,39 +1128,41 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="7"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="15">
       <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
@@ -940,45 +1172,48 @@
       <c r="C10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="I10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="7"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="15">
+      <c r="A11" s="20">
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -987,39 +1222,42 @@
       <c r="C11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="7"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="15">
+      <c r="A12" s="20">
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1028,45 +1266,48 @@
       <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="D12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="I12" s="22">
         <v>2164686</v>
       </c>
-      <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="7"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="28"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="15">
+      <c r="A13" s="20">
         <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1075,41 +1316,44 @@
       <c r="C13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="7"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="28"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="15">
+      <c r="A14" s="20">
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1118,45 +1362,48 @@
       <c r="C14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="21" t="n">
+      <c r="D14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="G14" s="20">
         <v>691210910006</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="23"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="7"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="28"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="15">
+      <c r="A15" s="20">
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1165,45 +1412,48 @@
       <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="G15" s="20">
         <v>55</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="I15" s="22">
         <v>1702644</v>
       </c>
-      <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="7"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="33"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="AD15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="15">
+      <c r="A16" s="20">
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1212,41 +1462,44 @@
       <c r="C16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="21" t="n">
+      <c r="D16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="21">
         <v>5</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="7"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="33"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="28"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="AD16" s="7"/>
+    </row>
+    <row r="17" spans="1:30" ht="15">
+      <c r="A17" s="20">
         <v>7</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1255,45 +1508,48 @@
       <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="22" t="n">
+      <c r="I17" s="22">
         <v>2893392</v>
       </c>
-      <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="7"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="28"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+      <c r="AD17" s="7"/>
+    </row>
+    <row r="18" spans="1:30" ht="15">
+      <c r="A18" s="20">
         <v>8</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -1302,41 +1558,44 @@
       <c r="C18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="7"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="33"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="28"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+      <c r="AD18" s="7"/>
+    </row>
+    <row r="19" spans="1:30" ht="15">
+      <c r="A19" s="20">
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -1345,41 +1604,44 @@
       <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="7"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="33"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="28"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+      <c r="AD19" s="7"/>
+    </row>
+    <row r="20" spans="1:30" ht="15">
+      <c r="A20" s="20">
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1388,41 +1650,44 @@
       <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="21" t="n">
+      <c r="D20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="7"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+      <c r="AD20" s="7"/>
+    </row>
+    <row r="21" spans="1:30" ht="15">
+      <c r="A21" s="20">
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1431,605 +1696,621 @@
       <c r="C21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="21">
         <v>1</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="7"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="28"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="7"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="28"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD22" s="7"/>
+    </row>
+    <row r="23" spans="1:30" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="7"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="1:30" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="7"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="28"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="1:30" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="7"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="28"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD25" s="7"/>
+    </row>
+    <row r="26" spans="1:30" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="7"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="28"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD26" s="7"/>
+    </row>
+    <row r="27" spans="1:30" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="7"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="28"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="1:30" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="23"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="7"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="28"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD28" s="7"/>
+    </row>
+    <row r="29" spans="1:30" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="7"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="28"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="7"/>
+    </row>
+    <row r="30" spans="1:30" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="7"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="28"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD30" s="7"/>
+    </row>
+    <row r="31" spans="1:30" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="7"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="28"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="7"/>
+    </row>
+    <row r="32" spans="1:30" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="23"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="7"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="28"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD32" s="7"/>
+    </row>
+    <row r="33" spans="1:30" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="37"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="23"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="7"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="28"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD33" s="7"/>
+    </row>
+    <row r="34" spans="1:30" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="32"/>
       <c r="N34" s="23"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="7"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="33"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="28"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD34" s="7"/>
+    </row>
+    <row r="35" spans="1:30" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="7"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="39"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="28"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD35" s="7"/>
+    </row>
+    <row r="36" spans="1:30" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="23"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="7"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="28"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD36" s="7"/>
+    </row>
+    <row r="37" spans="1:30" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="7"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="28"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD37" s="7"/>
+    </row>
+    <row r="38" spans="1:30" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="23"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="7"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="28"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD38" s="7"/>
+    </row>
+    <row r="39" spans="1:30" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="37"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="23"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="7"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="33"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="28"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AD39" s="7"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>